--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით/აჭარა ა.რ/ქ. ბათუმის მუნიციპალიტეტი.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით/აჭარა ა.რ/ქ. ბათუმის მუნიციპალიტეტი.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მომსახურება\ბაზრები მუნიციპალიტეტები\ბ&amp;ბ რაოდენობა საკუთრების ფორმის მიხედვით\ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7637B0-D857-4BF9-9C99-05FF1F306E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="17700" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ქ. ბათუმი" sheetId="1" r:id="rId1"/>
+    <sheet name="ქ.ბათუმი" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმების მიხედვით ქ. ბათუმის მუნიციპალიტეტში</t>
   </si>
@@ -40,18 +41,15 @@
   <si>
     <t>კერძო</t>
   </si>
-  <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\);\-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +90,12 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,11 +130,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -138,10 +151,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,7 +169,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -168,7 +181,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -180,11 +193,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,18 +483,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" style="16" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="16"/>
+    <col min="2" max="17" width="8.7109375" style="16" customWidth="1"/>
+    <col min="18" max="256" width="9.140625" style="16"/>
     <col min="257" max="257" width="15.5703125" style="16" customWidth="1"/>
     <col min="258" max="266" width="12.7109375" style="16" customWidth="1"/>
     <col min="267" max="512" width="9.140625" style="16"/>
@@ -669,18 +685,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -735,8 +751,12 @@
       <c r="J3" s="6">
         <v>2021</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2023</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -772,8 +792,12 @@
       <c r="J4" s="10">
         <v>9</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10">
+        <v>8</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -809,53 +833,59 @@
       <c r="J5" s="14">
         <v>1</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="20">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="20">
         <v>10</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="20">
         <v>9</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="20">
         <v>8</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="20">
         <v>7</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="20">
         <v>7</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="20">
         <v>8</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="20">
         <v>8</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="20">
         <v>8</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="20">
+        <v>7</v>
+      </c>
+      <c r="L6" s="20">
+        <v>7</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1297,10 +1327,6 @@
       <c r="O32" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>